--- a/Models2.xlsx
+++ b/Models2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Annuity Certain" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="5.3" sheetId="8" r:id="rId11"/>
     <sheet name="P5.3" sheetId="9" r:id="rId12"/>
     <sheet name="5.5" sheetId="10" r:id="rId13"/>
+    <sheet name="P7.4" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
   <si>
     <t>Premium</t>
   </si>
@@ -234,7 +235,7 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +280,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -296,6 +298,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,7 +375,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -423,6 +431,8 @@
     <xf numFmtId="173" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2665,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,7 +3703,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4806,7 +4816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6003,6 +6013,1626 @@
         <v>16</v>
       </c>
       <c r="I41" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <evenFooter>&amp;LINTERNAL</evenFooter>
+    <firstFooter>&amp;LINTERNAL</firstFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
+        <f>E2</f>
+        <v>390889.80551358621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>25000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <f>B2*SUMPRODUCT(G11:G59,H11:H59)</f>
+        <v>390889.80551358621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>3.6099999999999999E-3</v>
+      </c>
+      <c r="E10" s="47">
+        <v>95448.462920477439</v>
+      </c>
+      <c r="F10" s="48">
+        <v>344.30169544674629</v>
+      </c>
+      <c r="H10" s="25">
+        <f>(1+B$3)^-(B10-B$10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D11" s="22">
+        <f>F11/E11</f>
+        <v>3.9402000000000005E-3</v>
+      </c>
+      <c r="E11" s="47">
+        <v>95104.161225030693</v>
+      </c>
+      <c r="F11" s="48">
+        <v>374.72941605886598</v>
+      </c>
+      <c r="G11" s="25">
+        <f>E11/E$10</f>
+        <v>0.99639279999999997</v>
+      </c>
+      <c r="H11" s="25">
+        <f>(1+B$3)^-(B11-B$10)</f>
+        <v>0.96153846153846145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D12" s="22">
+        <f t="shared" ref="D12:D60" si="0">F12/E12</f>
+        <v>4.2938999999999998E-3</v>
+      </c>
+      <c r="E12" s="47">
+        <v>94729.431808971829</v>
+      </c>
+      <c r="F12" s="48">
+        <v>406.7587072445441</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" ref="G12:G60" si="1">E12/E$10</f>
+        <v>0.99246681308944007</v>
+      </c>
+      <c r="H12" s="25">
+        <f>(1+B$3)^-(B12-B$10)</f>
+        <v>0.92455621301775137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D13" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6763999999999998E-3</v>
+      </c>
+      <c r="E13" s="47">
+        <v>94322.673101727283</v>
+      </c>
+      <c r="F13" s="48">
+        <v>441.09054849291743</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="1"/>
+        <v>0.98820525984071528</v>
+      </c>
+      <c r="H13" s="25">
+        <f>(1+B$3)^-(B13-B$10)</f>
+        <v>0.88899635867091487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="11">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D14" s="22">
+        <f t="shared" si="0"/>
+        <v>5.1012000000000002E-3</v>
+      </c>
+      <c r="E14" s="47">
+        <v>93881.582553234359</v>
+      </c>
+      <c r="F14" s="48">
+        <v>478.90872892055916</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>0.98358401676359608</v>
+      </c>
+      <c r="H14" s="25">
+        <f>(1+B$3)^-(B14-B$10)</f>
+        <v>0.85480419102972571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D15" s="22">
+        <f t="shared" si="0"/>
+        <v>5.5827000000000003E-3</v>
+      </c>
+      <c r="E15" s="47">
+        <v>93402.673824313795</v>
+      </c>
+      <c r="F15" s="48">
+        <v>521.43910715899665</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="1"/>
+        <v>0.97856655797728154</v>
+      </c>
+      <c r="H15" s="25">
+        <f>(1+B$3)^-(B15-B$10)</f>
+        <v>0.82192710675935154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D16" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1326000000000002E-3</v>
+      </c>
+      <c r="E16" s="47">
+        <v>92881.234717154803</v>
+      </c>
+      <c r="F16" s="48">
+        <v>569.60346002642359</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="1"/>
+        <v>0.97310351445406185</v>
+      </c>
+      <c r="H16" s="25">
+        <f>(1+B$3)^-(B16-B$10)</f>
+        <v>0.79031452573014571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7635000000000004E-3</v>
+      </c>
+      <c r="E17" s="47">
+        <v>92311.631257128378</v>
+      </c>
+      <c r="F17" s="48">
+        <v>624.34971800758785</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="1"/>
+        <v>0.96713585984132089</v>
+      </c>
+      <c r="H17" s="25">
+        <f>(1+B$3)^-(B17-B$10)</f>
+        <v>0.75991781320206331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" si="0"/>
+        <v>7.4889000000000006E-3</v>
+      </c>
+      <c r="E18" s="47">
+        <v>91687.281539120784</v>
+      </c>
+      <c r="F18" s="48">
+        <v>686.63688271832166</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="1"/>
+        <v>0.96059463645328402</v>
+      </c>
+      <c r="H18" s="25">
+        <f>(1+B$3)^-(B18-B$10)</f>
+        <v>0.73069020500198378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3214000000000014E-3</v>
+      </c>
+      <c r="E19" s="47">
+        <v>91000.644656402466</v>
+      </c>
+      <c r="F19" s="48">
+        <v>757.25276444378756</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.95340083928034902</v>
+      </c>
+      <c r="H19" s="25">
+        <f>(1+B$3)^-(B19-B$10)</f>
+        <v>0.70258673557883045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D20" s="22">
+        <f t="shared" si="0"/>
+        <v>9.2744999999999998E-3</v>
+      </c>
+      <c r="E20" s="47">
+        <v>90243.391891958672</v>
+      </c>
+      <c r="F20" s="48">
+        <v>836.96233810197066</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>0.94546720953636143</v>
+      </c>
+      <c r="H20" s="25">
+        <f>(1+B$3)^-(B20-B$10)</f>
+        <v>0.67556416882579851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D21" s="22">
+        <f t="shared" si="0"/>
+        <v>1.0359E-2</v>
+      </c>
+      <c r="E21" s="47">
+        <v>89406.429553856695</v>
+      </c>
+      <c r="F21" s="48">
+        <v>926.16120374840148</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="1"/>
+        <v>0.93669847390151639</v>
+      </c>
+      <c r="H21" s="25">
+        <f>(1+B$3)^-(B21-B$10)</f>
+        <v>0.6495809315632679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11">
+        <v>72</v>
+      </c>
+      <c r="C22">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D22" s="22">
+        <f t="shared" si="0"/>
+        <v>1.15893E-2</v>
+      </c>
+      <c r="E22" s="47">
+        <v>88480.268350108294</v>
+      </c>
+      <c r="F22" s="48">
+        <v>1025.42437398991</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.92699521441037058</v>
+      </c>
+      <c r="H22" s="25">
+        <f>(1+B$3)^-(B22-B$10)</f>
+        <v>0.62459704958006512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11">
+        <v>73</v>
+      </c>
+      <c r="C23">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D23" s="22">
+        <f t="shared" si="0"/>
+        <v>1.29762E-2</v>
+      </c>
+      <c r="E23" s="47">
+        <v>87454.843976118384</v>
+      </c>
+      <c r="F23" s="48">
+        <v>1134.8315464029074</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="1"/>
+        <v>0.91625198877200453</v>
+      </c>
+      <c r="H23" s="25">
+        <f>(1+B$3)^-(B23-B$10)</f>
+        <v>0.600574086134678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" s="11">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D24" s="22">
+        <f t="shared" si="0"/>
+        <v>1.45332E-2</v>
+      </c>
+      <c r="E24" s="47">
+        <v>86320.012429715483</v>
+      </c>
+      <c r="F24" s="48">
+        <v>1254.506004643541</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="1"/>
+        <v>0.90436251971530135</v>
+      </c>
+      <c r="H24" s="25">
+        <f>(1+B$3)^-(B24-B$10)</f>
+        <v>0.57747508282180582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" si="0"/>
+        <v>1.6271999999999998E-2</v>
+      </c>
+      <c r="E25" s="47">
+        <v>85065.506425071944</v>
+      </c>
+      <c r="F25" s="48">
+        <v>1384.1859205487706</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="1"/>
+        <v>0.89121923834377492</v>
+      </c>
+      <c r="H25" s="25">
+        <f>(1+B$3)^-(B25-B$10)</f>
+        <v>0.55526450271327477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11">
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D26" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8217799999999999E-2</v>
+      </c>
+      <c r="E26" s="47">
+        <v>83681.320504523173</v>
+      </c>
+      <c r="F26" s="48">
+        <v>1524.4895606873022</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="1"/>
+        <v>0.87671731889744497</v>
+      </c>
+      <c r="H26" s="25">
+        <f>(1+B$3)^-(B26-B$10)</f>
+        <v>0.53390817568584104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" s="11">
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D27" s="22">
+        <f t="shared" si="0"/>
+        <v>2.04534E-2</v>
+      </c>
+      <c r="E27" s="47">
+        <v>82156.83094383587</v>
+      </c>
+      <c r="F27" s="48">
+        <v>1680.3865260266525</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="1"/>
+        <v>0.86074545812523506</v>
+      </c>
+      <c r="H27" s="25">
+        <f>(1+B$3)^-(B27-B$10)</f>
+        <v>0.51337324585177024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28" s="11">
+        <v>78</v>
+      </c>
+      <c r="C28">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D28" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3074200000000003E-2</v>
+      </c>
+      <c r="E28" s="47">
+        <v>80476.444417809224</v>
+      </c>
+      <c r="F28" s="48">
+        <v>1856.9295737854138</v>
+      </c>
+      <c r="G28" s="25">
+        <f t="shared" si="1"/>
+        <v>0.84314028697201648</v>
+      </c>
+      <c r="H28" s="25">
+        <f>(1+B$3)^-(B28-B$10)</f>
+        <v>0.49362812101131748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29" s="11">
+        <v>79</v>
+      </c>
+      <c r="C29">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D29" s="22">
+        <f t="shared" si="0"/>
+        <v>2.6173799999999997E-2</v>
+      </c>
+      <c r="E29" s="47">
+        <v>78619.514844023812</v>
+      </c>
+      <c r="F29" s="48">
+        <v>2057.7714576245103</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="1"/>
+        <v>0.82368549936236679</v>
+      </c>
+      <c r="H29" s="25">
+        <f>(1+B$3)^-(B29-B$10)</f>
+        <v>0.47464242404934376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30" s="11">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D30" s="22">
+        <f t="shared" si="0"/>
+        <v>2.9843999999999999E-2</v>
+      </c>
+      <c r="E30" s="47">
+        <v>76561.743386399306</v>
+      </c>
+      <c r="F30" s="48">
+        <v>2284.9086696237009</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="1"/>
+        <v>0.80212651983915617</v>
+      </c>
+      <c r="H30" s="25">
+        <f>(1+B$3)^-(B30-B$10)</f>
+        <v>0.45638694620129205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11">
+        <v>81</v>
+      </c>
+      <c r="C31">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D31" s="22">
+        <f t="shared" si="0"/>
+        <v>3.4172999999999995E-2</v>
+      </c>
+      <c r="E31" s="47">
+        <v>74276.8347167756</v>
+      </c>
+      <c r="F31" s="48">
+        <v>2538.2622727763724</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" si="1"/>
+        <v>0.77818785598107632</v>
+      </c>
+      <c r="H31" s="25">
+        <f>(1+B$3)^-(B31-B$10)</f>
+        <v>0.43883360211662686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32" s="11">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D32" s="22">
+        <f t="shared" si="0"/>
+        <v>3.9247200000000003E-2</v>
+      </c>
+      <c r="E32" s="47">
+        <v>71738.572443999234</v>
+      </c>
+      <c r="F32" s="48">
+        <v>2815.5381004241272</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="1"/>
+        <v>0.75159484237863505</v>
+      </c>
+      <c r="H32" s="25">
+        <f>(1+B$3)^-(B32-B$10)</f>
+        <v>0.42195538665060278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33" s="11">
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D33" s="22">
+        <f t="shared" si="0"/>
+        <v>4.5149400000000006E-2</v>
+      </c>
+      <c r="E33" s="47">
+        <v>68923.034343575113</v>
+      </c>
+      <c r="F33" s="48">
+        <v>3111.8336467918107</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="1"/>
+        <v>0.7220968492808324</v>
+      </c>
+      <c r="H33" s="25">
+        <f>(1+B$3)^-(B33-B$10)</f>
+        <v>0.40572633331788732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34" s="11">
+        <v>84</v>
+      </c>
+      <c r="C34">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D34" s="22">
+        <f t="shared" si="0"/>
+        <v>5.19552E-2</v>
+      </c>
+      <c r="E34" s="47">
+        <v>65811.2006967833</v>
+      </c>
+      <c r="F34" s="48">
+        <v>3419.2340944415159</v>
+      </c>
+      <c r="G34" s="25">
+        <f t="shared" si="1"/>
+        <v>0.68949460979391231</v>
+      </c>
+      <c r="H34" s="25">
+        <f>(1+B$3)^-(B34-B$10)</f>
+        <v>0.39012147434412242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35" s="11">
+        <v>85</v>
+      </c>
+      <c r="C35">
+        <f>B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D35" s="22">
+        <f t="shared" si="0"/>
+        <v>5.9737500000000006E-2</v>
+      </c>
+      <c r="E35" s="47">
+        <v>62391.966602341781</v>
+      </c>
+      <c r="F35" s="48">
+        <v>3727.1401049073925</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" si="1"/>
+        <v>0.65367177944314758</v>
+      </c>
+      <c r="H35" s="25">
+        <f>(1+B$3)^-(B35-B$10)</f>
+        <v>0.37511680225396377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36" s="11">
+        <v>86</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C60" si="2">B$2</f>
+        <v>25000</v>
+      </c>
+      <c r="D36" s="22">
+        <f t="shared" si="0"/>
+        <v>6.85611E-2</v>
+      </c>
+      <c r="E36" s="47">
+        <v>58664.826497434391</v>
+      </c>
+      <c r="F36" s="48">
+        <v>4022.1250359732489</v>
+      </c>
+      <c r="G36" s="25">
+        <f t="shared" si="1"/>
+        <v>0.61462306151866264</v>
+      </c>
+      <c r="H36" s="25">
+        <f>(1+B$3)^-(B36-B$10)</f>
+        <v>0.36068923293650368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" s="11">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D37" s="22">
+        <f t="shared" si="0"/>
+        <v>7.8483600000000001E-2</v>
+      </c>
+      <c r="E37" s="47">
+        <v>54642.70146146114</v>
+      </c>
+      <c r="F37" s="48">
+        <v>4288.5559244207316</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="1"/>
+        <v>0.57248382833557543</v>
+      </c>
+      <c r="H37" s="25">
+        <f>(1+B$3)^-(B37-B$10)</f>
+        <v>0.3468165701312535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38" s="11">
+        <v>88</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D38" s="22">
+        <f t="shared" si="0"/>
+        <v>8.9553599999999997E-2</v>
+      </c>
+      <c r="E38" s="47">
+        <v>50354.145537040407</v>
+      </c>
+      <c r="F38" s="48">
+        <v>4509.3950077659019</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" si="1"/>
+        <v>0.52755323654601738</v>
+      </c>
+      <c r="H38" s="25">
+        <f>(1+B$3)^-(B38-B$10)</f>
+        <v>0.3334774712800514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39" s="11">
+        <v>89</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D39" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1018125</v>
+      </c>
+      <c r="E39" s="47">
+        <v>45844.750529274505</v>
+      </c>
+      <c r="F39" s="48">
+        <v>4667.5686632617608</v>
+      </c>
+      <c r="G39" s="25">
+        <f t="shared" si="1"/>
+        <v>0.48030894502166999</v>
+      </c>
+      <c r="H39" s="25">
+        <f>(1+B$3)^-(B39-B$10)</f>
+        <v>0.32065141469235708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" s="11">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D40" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11528819999999999</v>
+      </c>
+      <c r="E40" s="47">
+        <v>41177.181866012746</v>
+      </c>
+      <c r="F40" s="48">
+        <v>4747.2431784052505</v>
+      </c>
+      <c r="G40" s="25">
+        <f t="shared" si="1"/>
+        <v>0.43140749055665123</v>
+      </c>
+      <c r="H40" s="25">
+        <f>(1+B$3)^-(B40-B$10)</f>
+        <v>0.30831866797342034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41" s="11">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D41" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12999959999999999</v>
+      </c>
+      <c r="E41" s="47">
+        <v>36429.938687607493</v>
+      </c>
+      <c r="F41" s="48">
+        <v>4735.8774574134986</v>
+      </c>
+      <c r="G41" s="25">
+        <f t="shared" si="1"/>
+        <v>0.38167129750385786</v>
+      </c>
+      <c r="H41" s="25">
+        <f>(1+B$3)^-(B41-B$10)</f>
+        <v>0.29646025766675027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42" s="11">
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D42" s="22">
+        <f t="shared" si="0"/>
+        <v>0.14588190000000001</v>
+      </c>
+      <c r="E42" s="47">
+        <v>31694.061230193995</v>
+      </c>
+      <c r="F42" s="48">
+        <v>4623.5898709770372</v>
+      </c>
+      <c r="G42" s="25">
+        <f t="shared" si="1"/>
+        <v>0.33205418149687538</v>
+      </c>
+      <c r="H42" s="25">
+        <f>(1+B$3)^-(B42-B$10)</f>
+        <v>0.28505794006418295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43" s="11">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D43" s="22">
+        <f t="shared" si="0"/>
+        <v>0.16258410000000001</v>
+      </c>
+      <c r="E43" s="47">
+        <v>27070.471359216957</v>
+      </c>
+      <c r="F43" s="48">
+        <v>4401.2282225140661</v>
+      </c>
+      <c r="G43" s="25">
+        <f t="shared" si="1"/>
+        <v>0.28361348659716634</v>
+      </c>
+      <c r="H43" s="25">
+        <f>(1+B$3)^-(B43-B$10)</f>
+        <v>0.27409417313863743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" s="11">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D44" s="22">
+        <f t="shared" si="0"/>
+        <v>0.17970839999999999</v>
+      </c>
+      <c r="E44" s="47">
+        <v>22669.243136702891</v>
+      </c>
+      <c r="F44" s="48">
+        <v>4073.8534133078574</v>
+      </c>
+      <c r="G44" s="25">
+        <f t="shared" si="1"/>
+        <v>0.23750244313090399</v>
+      </c>
+      <c r="H44" s="25">
+        <f>(1+B$3)^-(B44-B$10)</f>
+        <v>0.26355208955638215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45" s="11">
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D45" s="22">
+        <f t="shared" si="0"/>
+        <v>0.19688939999999999</v>
+      </c>
+      <c r="E45" s="47">
+        <v>18595.389723395034</v>
+      </c>
+      <c r="F45" s="48">
+        <v>3661.2351254054142</v>
+      </c>
+      <c r="G45" s="25">
+        <f t="shared" si="1"/>
+        <v>0.19482125907975825</v>
+      </c>
+      <c r="H45" s="25">
+        <f>(1+B$3)^-(B45-B$10)</f>
+        <v>0.25341547072729048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>36</v>
+      </c>
+      <c r="B46" s="11">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D46" s="22">
+        <f t="shared" si="0"/>
+        <v>0.21379140000000002</v>
+      </c>
+      <c r="E46" s="47">
+        <v>14934.15459798962</v>
+      </c>
+      <c r="F46" s="48">
+        <v>3192.7938193206382</v>
+      </c>
+      <c r="G46" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15646301827230011</v>
+      </c>
+      <c r="H46" s="25">
+        <f>(1+B$3)^-(B46-B$10)</f>
+        <v>0.24366872185316396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>37</v>
+      </c>
+      <c r="B47" s="11">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D47" s="22">
+        <f t="shared" si="0"/>
+        <v>0.23010929999999999</v>
+      </c>
+      <c r="E47" s="47">
+        <v>11741.360778668983</v>
+      </c>
+      <c r="F47" s="48">
+        <v>2701.7963098269743</v>
+      </c>
+      <c r="G47" s="25">
+        <f t="shared" si="1"/>
+        <v>0.12301257054763949</v>
+      </c>
+      <c r="H47" s="25">
+        <f>(1+B$3)^-(B47-B$10)</f>
+        <v>0.23429684793573452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>38</v>
+      </c>
+      <c r="B48" s="11">
+        <v>98</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D48" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2455677</v>
+      </c>
+      <c r="E48" s="47">
+        <v>9039.5644688420089</v>
+      </c>
+      <c r="F48" s="48">
+        <v>2219.8250556152539</v>
+      </c>
+      <c r="G48" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4706234047721549E-2</v>
+      </c>
+      <c r="H48" s="25">
+        <f>(1+B$3)^-(B48-B$10)</f>
+        <v>0.22528543070743706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>39</v>
+      </c>
+      <c r="B49" s="11">
+        <v>99</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D49" s="22">
+        <f t="shared" si="0"/>
+        <v>0.25991819999999999</v>
+      </c>
+      <c r="E49" s="47">
+        <v>6819.7394132267546</v>
+      </c>
+      <c r="F49" s="48">
+        <v>1772.5743927549543</v>
+      </c>
+      <c r="G49" s="25">
+        <f t="shared" si="1"/>
+        <v>7.1449441976960876E-2</v>
+      </c>
+      <c r="H49" s="25">
+        <f>(1+B$3)^-(B49-B$10)</f>
+        <v>0.21662060644945874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50" s="11">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D50" s="22">
+        <f t="shared" si="0"/>
+        <v>0.27293670000000003</v>
+      </c>
+      <c r="E50" s="47">
+        <v>5047.1650204718007</v>
+      </c>
+      <c r="F50" s="48">
+        <v>1377.556565043006</v>
+      </c>
+      <c r="G50" s="25">
+        <f t="shared" si="1"/>
+        <v>5.2878431627304767E-2</v>
+      </c>
+      <c r="H50" s="25">
+        <f>(1+B$3)^-(B50-B$10)</f>
+        <v>0.20828904466294101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>41</v>
+      </c>
+      <c r="B51" s="11">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D51" s="22">
+        <f t="shared" si="0"/>
+        <v>0.28691729999999999</v>
+      </c>
+      <c r="E51" s="47">
+        <v>3669.6084554287945</v>
+      </c>
+      <c r="F51" s="48">
+        <v>1052.8741500888</v>
+      </c>
+      <c r="G51" s="25">
+        <f t="shared" si="1"/>
+        <v>3.8445966997772571E-2</v>
+      </c>
+      <c r="H51" s="25">
+        <f>(1+B$3)^-(B51-B$10)</f>
+        <v>0.20027792756052021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>42</v>
+      </c>
+      <c r="B52" s="11">
+        <v>102</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D52" s="22">
+        <f t="shared" si="0"/>
+        <v>0.30043710000000001</v>
+      </c>
+      <c r="E52" s="47">
+        <v>2616.7343053399945</v>
+      </c>
+      <c r="F52" s="48">
+        <v>786.16406616686254</v>
+      </c>
+      <c r="G52" s="25">
+        <f t="shared" si="1"/>
+        <v>2.7415153950882558E-2</v>
+      </c>
+      <c r="H52" s="25">
+        <f>(1+B$3)^-(B52-B$10)</f>
+        <v>0.19257493034665407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>43</v>
+      </c>
+      <c r="B53" s="11">
+        <v>103</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D53" s="22">
+        <f t="shared" si="0"/>
+        <v>0.31356539999999999</v>
+      </c>
+      <c r="E53" s="47">
+        <v>1830.570239173132</v>
+      </c>
+      <c r="F53" s="48">
+        <v>574.00348927441883</v>
+      </c>
+      <c r="G53" s="25">
+        <f t="shared" si="1"/>
+        <v>1.9178624601825862E-2</v>
+      </c>
+      <c r="H53" s="25">
+        <f>(1+B$3)^-(B53-B$10)</f>
+        <v>0.18516820225639813</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>44</v>
+      </c>
+      <c r="B54" s="11">
+        <v>104</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D54" s="22">
+        <f t="shared" si="0"/>
+        <v>0.32629230000000004</v>
+      </c>
+      <c r="E54" s="47">
+        <v>1256.5667498987132</v>
+      </c>
+      <c r="F54" s="48">
+        <v>410.00805492797593</v>
+      </c>
+      <c r="G54" s="25">
+        <f t="shared" si="1"/>
+        <v>1.3164871507104494E-2</v>
+      </c>
+      <c r="H54" s="25">
+        <f>(1+B$3)^-(B54-B$10)</f>
+        <v>0.17804634832345972</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>45</v>
+      </c>
+      <c r="B55" s="11">
+        <v>105</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D55" s="22">
+        <f t="shared" si="0"/>
+        <v>0.33861240000000004</v>
+      </c>
+      <c r="E55" s="47">
+        <v>846.55869497073718</v>
+      </c>
+      <c r="F55" s="48">
+        <v>286.65527144490926</v>
+      </c>
+      <c r="G55" s="25">
+        <f t="shared" si="1"/>
+        <v>8.8692753038469001E-3</v>
+      </c>
+      <c r="H55" s="25">
+        <f>(1+B$3)^-(B55-B$10)</f>
+        <v>0.17119841184948048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>46</v>
+      </c>
+      <c r="B56" s="11">
+        <v>106</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D56" s="22">
+        <f t="shared" si="0"/>
+        <v>0.3505239</v>
+      </c>
+      <c r="E56" s="47">
+        <v>559.90342352582798</v>
+      </c>
+      <c r="F56" s="48">
+        <v>196.25953163762497</v>
+      </c>
+      <c r="G56" s="25">
+        <f t="shared" si="1"/>
+        <v>5.8660287069505733E-3</v>
+      </c>
+      <c r="H56" s="25">
+        <f>(1+B$3)^-(B56-B$10)</f>
+        <v>0.1646138575475774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>47</v>
+      </c>
+      <c r="B57" s="11">
+        <v>107</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D57" s="22">
+        <f t="shared" si="0"/>
+        <v>0.36202319999999999</v>
+      </c>
+      <c r="E57" s="47">
+        <v>363.64389188820303</v>
+      </c>
+      <c r="F57" s="48">
+        <v>131.6475254018213</v>
+      </c>
+      <c r="G57" s="25">
+        <f t="shared" si="1"/>
+        <v>3.8098454470783011E-3</v>
+      </c>
+      <c r="H57" s="25">
+        <f>(1+B$3)^-(B57-B$10)</f>
+        <v>0.15828255533420904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>48</v>
+      </c>
+      <c r="B58" s="11">
+        <v>108</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D58" s="22">
+        <f t="shared" si="0"/>
+        <v>0.37311030000000001</v>
+      </c>
+      <c r="E58" s="47">
+        <v>231.99636648638173</v>
+      </c>
+      <c r="F58" s="48">
+        <v>86.56023389864383</v>
+      </c>
+      <c r="G58" s="25">
+        <f t="shared" si="1"/>
+        <v>2.4305930068215841E-3</v>
+      </c>
+      <c r="H58" s="25">
+        <f>(1+B$3)^-(B58-B$10)</f>
+        <v>0.15219476474443175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>49</v>
+      </c>
+      <c r="B59" s="11">
+        <v>109</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D59" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="47">
+        <v>145.43613258773792</v>
+      </c>
+      <c r="F59" s="48">
+        <v>145.43613258773792</v>
+      </c>
+      <c r="G59" s="25">
+        <f t="shared" si="1"/>
+        <v>1.5237137208684809E-3</v>
+      </c>
+      <c r="H59" s="25">
+        <f>(1+B$3)^-(B59-B$10)</f>
+        <v>0.14634111994656898</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>50</v>
+      </c>
+      <c r="B60" s="11">
+        <v>110</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D60" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E60" s="47">
+        <v>0</v>
+      </c>
+      <c r="F60" s="48"/>
+      <c r="G60" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="25">
+        <f>(1+B$3)^-(B60-B$10)</f>
+        <v>0.14071261533323939</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
